--- a/src/assets/samples/ImportTicketVisitSalesTemplate.xlsx
+++ b/src/assets/samples/ImportTicketVisitSalesTemplate.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afaqy\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qasem\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E131DA2-0168-43D7-8C0E-8F06B5EF972B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE419119-4864-4A2D-8793-45794D8C1B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F8CF2A45-B278-473C-AD22-2B1052D31D43}"/>
+    <workbookView xWindow="27660" yWindow="675" windowWidth="21975" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,26 +25,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>TerminalId</t>
-  </si>
-  <si>
-    <t>ErrandTypeId</t>
-  </si>
-  <si>
-    <t>AssigneeId</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t xml:space="preserve">Quantity </t>
+  </si>
+  <si>
+    <t>Addon1 Quantity</t>
+  </si>
+  <si>
+    <t>Addon2 Quantity</t>
+  </si>
+  <si>
+    <t>Terminal ID</t>
+  </si>
+  <si>
+    <t>Note (Optional)</t>
+  </si>
+  <si>
+    <t>Schedule?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Months </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day </t>
+  </si>
+  <si>
+    <t xml:space="preserve">start date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">end date </t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Errand Type</t>
+  </si>
+  <si>
+    <t>Addon1 Errand Type</t>
+  </si>
+  <si>
+    <t>Addon2 Errand Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -71,7 +107,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -106,7 +142,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -118,7 +154,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -165,23 +201,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -217,23 +236,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -385,33 +387,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BE0C2A-D9F3-4CDC-A2FB-2EA44E3111B1}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="20.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/assets/samples/ImportTicketVisitSalesTemplate.xlsx
+++ b/src/assets/samples/ImportTicketVisitSalesTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qasem\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afaqy\Downloads\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE419119-4864-4A2D-8793-45794D8C1B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2F4B08-AB1D-42A0-A864-33B088E8D2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27660" yWindow="675" windowWidth="21975" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,37 +36,37 @@
     <t>Addon2 Quantity</t>
   </si>
   <si>
+    <t>Note (Optional)</t>
+  </si>
+  <si>
+    <t>Schedule?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Months </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day </t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Errand Type</t>
+  </si>
+  <si>
+    <t>Addon1 Errand Type</t>
+  </si>
+  <si>
+    <t>Addon2 Errand Type</t>
+  </si>
+  <si>
+    <t>start date (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end date (YYYY-MM-DD) </t>
+  </si>
+  <si>
     <t>Terminal ID</t>
-  </si>
-  <si>
-    <t>Note (Optional)</t>
-  </si>
-  <si>
-    <t>Schedule?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Months </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day </t>
-  </si>
-  <si>
-    <t xml:space="preserve">start date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">end date </t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Errand Type</t>
-  </si>
-  <si>
-    <t>Addon1 Errand Type</t>
-  </si>
-  <si>
-    <t>Addon2 Errand Type</t>
   </si>
 </sst>
 </file>
@@ -80,7 +80,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -390,69 +390,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="22.75" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="20.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
